--- a/TriviaQuestions/AllTrivia.xlsx
+++ b/TriviaQuestions/AllTrivia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="315">
   <si>
     <t>Zelda</t>
   </si>
@@ -799,9 +799,6 @@
     <t>Mario Luigi Wario Yoshi</t>
   </si>
   <si>
-    <t>Mario Toad Bowser Peach</t>
-  </si>
-  <si>
     <t>Mario Luigi Toad Koopa</t>
   </si>
   <si>
@@ -947,6 +944,21 @@
   </si>
   <si>
     <t>Which TV character said 'Live long and prosper'?</t>
+  </si>
+  <si>
+    <t>1 and 2</t>
+  </si>
+  <si>
+    <t>Mario Toad Peach Bowser</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>Samuel L Jackson</t>
+  </si>
+  <si>
+    <t>James Earl Jones</t>
   </si>
 </sst>
 </file>
@@ -1443,11 +1455,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1787,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1806,7 +1818,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>81</v>
@@ -1832,7 +1844,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>82</v>
@@ -1858,7 +1870,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>83</v>
@@ -1936,7 +1948,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>83</v>
@@ -1962,7 +1974,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>83</v>
@@ -1988,7 +2000,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>83</v>
@@ -2046,7 +2058,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
@@ -2066,13 +2078,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
@@ -2273,8 +2285,8 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>285</v>
+      <c r="A19" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>82</v>
@@ -2326,19 +2338,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>84</v>
@@ -2364,7 +2376,7 @@
         <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>89</v>
@@ -2470,16 +2482,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
         <v>121</v>
-      </c>
-      <c r="D27" s="1">
-        <v>50</v>
       </c>
       <c r="E27" s="1">
         <v>32</v>
@@ -2496,7 +2508,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>83</v>
@@ -2522,19 +2534,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="2">
-        <v>41641</v>
+        <v>81</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="F29" s="1">
         <v>5</v>
@@ -2548,13 +2560,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -2563,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
@@ -2574,22 +2586,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -2600,19 +2612,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
@@ -2626,13 +2638,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
@@ -2641,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
@@ -2652,7 +2664,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
@@ -2678,16 +2690,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
         <v>9</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -2704,19 +2716,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>109</v>
@@ -2733,10 +2745,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>80</v>
+      </c>
+      <c r="C37" s="1">
+        <v>29</v>
       </c>
       <c r="D37" s="1">
         <v>53</v>
@@ -2744,8 +2756,8 @@
       <c r="E37" s="1">
         <v>108</v>
       </c>
-      <c r="F37" s="1">
-        <v>29</v>
+      <c r="F37" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -2764,6 +2776,15 @@
       <c r="C38" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="G38" s="1">
         <v>2</v>
       </c>
@@ -2813,7 +2834,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>83</v>
@@ -2856,13 +2877,13 @@
         <v>117</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -2896,13 +2917,13 @@
         <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -2933,7 +2954,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>83</v>
@@ -2982,13 +3003,13 @@
         <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>129</v>
@@ -3008,13 +3029,13 @@
         <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -3044,8 +3065,8 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="4" t="s">
-        <v>301</v>
+      <c r="A52" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>82</v>
@@ -3064,7 +3085,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3085,7 +3106,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>81</v>
@@ -3137,7 +3158,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>83</v>
@@ -3235,7 +3256,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>82</v>
@@ -3445,7 +3466,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>81</v>
@@ -3491,7 +3512,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>82</v>
@@ -3517,7 +3538,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>81</v>
@@ -3610,7 +3631,7 @@
         <v>223</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G75" s="1">
         <v>2</v>
@@ -3803,7 +3824,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -3887,16 +3908,16 @@
         <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="G86" s="1">
         <v>2</v>
@@ -3907,22 +3928,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="G87" s="1">
         <v>2</v>
@@ -3942,13 +3963,13 @@
         <v>162</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="G88" s="1">
         <v>2</v>
@@ -3965,13 +3986,13 @@
         <v>80</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>215</v>

--- a/TriviaQuestions/AllTrivia.xlsx
+++ b/TriviaQuestions/AllTrivia.xlsx
@@ -916,9 +916,6 @@
     <t>Mario was first seen in 1981's Donkey Kong</t>
   </si>
   <si>
-    <t>Luke I am your father!'  This quote was from Star wards Episode Vi: A New Hope</t>
-  </si>
-  <si>
     <t>What was Anakin's Apprentice's Name in the Star Wars: The Clone Wars animated TV show ?</t>
   </si>
   <si>
@@ -959,6 +956,9 @@
   </si>
   <si>
     <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>The quote 'Luke I am your Father' is from Star wards Episode Vi: A New Hope</t>
   </si>
 </sst>
 </file>
@@ -1799,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F29" s="1">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>260</v>
@@ -2777,13 +2777,13 @@
         <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -3065,8 +3065,8 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>300</v>
+      <c r="A52" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>82</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>81</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>83</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>82</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>81</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>82</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>81</v>
@@ -3631,7 +3631,7 @@
         <v>223</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G75" s="1">
         <v>2</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>82</v>

--- a/TriviaQuestions/AllTrivia.xlsx
+++ b/TriviaQuestions/AllTrivia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="325">
   <si>
     <t>Zelda</t>
   </si>
@@ -55,21 +55,6 @@
     <t>Sauron</t>
   </si>
   <si>
-    <t>How many total copies of the Legend of Zelda franchise have been sold in the US?</t>
-  </si>
-  <si>
-    <t>5 Million</t>
-  </si>
-  <si>
-    <t>6 Million</t>
-  </si>
-  <si>
-    <t>7 Million</t>
-  </si>
-  <si>
-    <t>Over 8 Million</t>
-  </si>
-  <si>
     <t>How many Poe sisters call the Forest Temple home?</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>Minish Cap</t>
   </si>
   <si>
-    <t>The first zelda game was named:</t>
-  </si>
-  <si>
     <t>The adventures of Link</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>Rubies</t>
   </si>
   <si>
-    <t>Which item does not ecxist in the Zelda world?</t>
-  </si>
-  <si>
     <t>What is the name of the currency used in the Zelda world?</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
     <t>Charles Martinet</t>
   </si>
   <si>
-    <t>Mario was originaly a carpenter</t>
-  </si>
-  <si>
     <t>Mario has a movie</t>
   </si>
   <si>
@@ -655,9 +631,6 @@
     <t xml:space="preserve">Who had a 1985 hit with Saving All My Love For You? </t>
   </si>
   <si>
-    <t>What is the colour of the bull of an archery target?</t>
-  </si>
-  <si>
     <t>What is the name of the phobia that involves an abnormal fear of spiders?</t>
   </si>
   <si>
@@ -745,15 +718,9 @@
     <t>Hermaphodite</t>
   </si>
   <si>
-    <t>Transexual</t>
-  </si>
-  <si>
     <t>Cross Dresser</t>
   </si>
   <si>
-    <t>Transvesite</t>
-  </si>
-  <si>
     <t>Captain Teemo</t>
   </si>
   <si>
@@ -817,9 +784,6 @@
     <t>C-3PO</t>
   </si>
   <si>
-    <t>Mr Spock</t>
-  </si>
-  <si>
     <t>Sulu</t>
   </si>
   <si>
@@ -850,18 +814,12 @@
     <t>What is the name of Link's Mystical Sword?</t>
   </si>
   <si>
-    <t>Who is Link's oldest nemisis?</t>
-  </si>
-  <si>
     <t>What is the name of Zelda's protector in the Ocarina?</t>
   </si>
   <si>
     <t>The actual main enemy in Majora's Mask was:</t>
   </si>
   <si>
-    <t>What was the name of the first boss in Major'as Mask?</t>
-  </si>
-  <si>
     <t>Majora's Mask</t>
   </si>
   <si>
@@ -959,6 +917,78 @@
   </si>
   <si>
     <t>The quote 'Luke I am your Father' is from Star wards Episode Vi: A New Hope</t>
+  </si>
+  <si>
+    <t>What is the name of the  younger sister from the Ranch in Majora's Mask?</t>
+  </si>
+  <si>
+    <t>What was the name of the first boss in Majora's Mask?</t>
+  </si>
+  <si>
+    <t>Creamia</t>
+  </si>
+  <si>
+    <t>Romani</t>
+  </si>
+  <si>
+    <t>Yuga</t>
+  </si>
+  <si>
+    <t>Malon</t>
+  </si>
+  <si>
+    <t>What is the name of the young girl from Lon Lon Ranch in Ocarina of Time?</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Talon</t>
+  </si>
+  <si>
+    <t>The name of the Twinrova sisters are Kotake and Koume.</t>
+  </si>
+  <si>
+    <t>There are 100 Gold Skulltulas found in Ocarina of Time.</t>
+  </si>
+  <si>
+    <t>Tingle is 37 years old.</t>
+  </si>
+  <si>
+    <t>Tingle was turned into his current self by a Demon known as 'Uncle Rupee'</t>
+  </si>
+  <si>
+    <t>Tingle's balloon is what color?</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>The large spider boss 'Gohma' has been used in many Legend of Zelda Games.</t>
+  </si>
+  <si>
+    <t>Who is Link's oldest nemesis?</t>
+  </si>
+  <si>
+    <t>The first Zelda game was named:</t>
+  </si>
+  <si>
+    <t>Which item does not exist in the Zelda world?</t>
+  </si>
+  <si>
+    <t>Mario was originally a carpenter</t>
+  </si>
+  <si>
+    <t>Transsexual</t>
+  </si>
+  <si>
+    <t>Transvestite</t>
+  </si>
+  <si>
+    <t>Mr. Spock</t>
+  </si>
+  <si>
+    <t>What is the color of the bull of an archery target?</t>
   </si>
 </sst>
 </file>
@@ -1797,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1818,10 +1848,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1844,10 +1874,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -1870,10 +1900,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1896,22 +1926,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>306</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1922,22 +1952,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -1948,22 +1978,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -1974,22 +2004,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -2000,22 +2030,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>2</v>
@@ -2026,22 +2056,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2052,22 +2082,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
@@ -2078,22 +2108,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -2104,22 +2134,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -2130,22 +2160,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -2156,22 +2186,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -2182,22 +2212,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
@@ -2208,22 +2238,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -2234,22 +2264,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -2260,74 +2290,74 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -2338,22 +2368,22 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
@@ -2364,22 +2394,22 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
@@ -2390,22 +2420,22 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -2416,22 +2446,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -2442,19 +2472,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -2462,19 +2498,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>0</v>
@@ -2482,462 +2524,462 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="1">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <v>121</v>
-      </c>
-      <c r="E27" s="1">
-        <v>32</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F29" s="1">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>262</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="1">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1">
-        <v>4</v>
-      </c>
-      <c r="E32" s="1">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>294</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1">
-        <v>15</v>
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1">
-        <v>150</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>121</v>
       </c>
       <c r="E34" s="1">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <v>2</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>109</v>
+        <v>295</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
-        <v>108</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="1">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>20</v>
+      </c>
+      <c r="F40" s="1">
+        <v>15</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="b">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C41" s="1">
+        <v>150</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1">
+        <v>50</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>25</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="1">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
+        <v>53</v>
+      </c>
+      <c r="E44" s="1">
+        <v>108</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="b">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="b">
         <v>1</v>
@@ -2949,15 +2991,15 @@
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="b">
         <v>1</v>
@@ -2969,67 +3011,55 @@
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>125</v>
+        <v>76</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>130</v>
+        <v>76</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1" t="b">
         <v>1</v>
@@ -3041,35 +3071,35 @@
         <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1" t="b">
         <v>1</v>
@@ -3081,15 +3111,15 @@
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="2" t="s">
-        <v>134</v>
+      <c r="A53" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1" t="b">
         <v>1</v>
@@ -3101,145 +3131,127 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>138</v>
+        <v>76</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>301</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>152</v>
+        <v>75</v>
+      </c>
+      <c r="C57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="G58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="b">
         <v>1</v>
@@ -3251,251 +3263,263 @@
         <v>1</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>302</v>
+      <c r="A60" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>162</v>
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="G61" s="1">
         <v>2</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="G62" s="1">
         <v>2</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>173</v>
+        <v>287</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1" t="b">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="G64" s="1">
         <v>2</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="G65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <v>3</v>
-      </c>
-      <c r="E66" s="1">
-        <v>2</v>
-      </c>
-      <c r="F66" s="1">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="C66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="b">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="G68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>303</v>
+        <v>160</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="b">
         <v>1</v>
@@ -3507,527 +3531,685 @@
         <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>196</v>
+        <v>76</v>
+      </c>
+      <c r="C72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>201</v>
+        <v>74</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
       </c>
       <c r="G73" s="1">
         <v>2</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>219</v>
+        <v>174</v>
+      </c>
+      <c r="C74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>306</v>
+        <v>75</v>
+      </c>
+      <c r="C75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="G76" s="1">
         <v>2</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="G78" s="1">
         <v>2</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="G79" s="1">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="G80" s="1">
         <v>2</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="G81" s="1">
         <v>2</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>307</v>
+        <v>195</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>247</v>
+        <v>143</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="G83" s="1">
         <v>2</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1">
         <v>2</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="1">
-        <v>7</v>
-      </c>
-      <c r="D85" s="1">
-        <v>3</v>
-      </c>
-      <c r="E85" s="1">
-        <v>10</v>
-      </c>
-      <c r="F85" s="1">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G86" s="1">
         <v>2</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G87" s="1">
         <v>2</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="G88" s="1">
         <v>2</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>215</v>
+        <v>322</v>
       </c>
       <c r="G89" s="1">
         <v>2</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>10</v>
+      </c>
+      <c r="F92" s="1">
+        <v>9</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="F95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="1">
         <v>1933</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D97" s="1">
         <v>1944</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E97" s="1">
         <v>1928</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F97" s="1">
         <v>1951</v>
       </c>
-      <c r="G90" s="1">
-        <v>2</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>216</v>
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/TriviaQuestions/AllTrivia.xlsx
+++ b/TriviaQuestions/AllTrivia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="23955" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="All Trivia" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="355">
   <si>
     <t>Zelda</t>
   </si>
@@ -916,9 +916,6 @@
     <t>James Earl Jones</t>
   </si>
   <si>
-    <t>The quote 'Luke I am your Father' is from Star wards Episode Vi: A New Hope</t>
-  </si>
-  <si>
     <t>What is the name of the  younger sister from the Ranch in Majora's Mask?</t>
   </si>
   <si>
@@ -989,6 +986,99 @@
   </si>
   <si>
     <t>What is the color of the bull of an archery target?</t>
+  </si>
+  <si>
+    <t>The quote 'Luke I am your Father' is from Star wards Episode Vi: A New Generation</t>
+  </si>
+  <si>
+    <t>Who shot first?</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Luke's Uncle and Aunt owned a ____ farm.</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Moisture</t>
+  </si>
+  <si>
+    <t>The world may never know</t>
+  </si>
+  <si>
+    <t>Who killed Jango Fett?</t>
+  </si>
+  <si>
+    <t>Mace Windu</t>
+  </si>
+  <si>
+    <t>Jar Jar</t>
+  </si>
+  <si>
+    <t>Who were the two sith in Episode 1: The Phantom Menace?</t>
+  </si>
+  <si>
+    <t>Darth Maul and Darth Sidious</t>
+  </si>
+  <si>
+    <t>Darth Vader, Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Darth Spock, Darth Dooku</t>
+  </si>
+  <si>
+    <t>Count Dooku, Darth Sidious</t>
+  </si>
+  <si>
+    <t>What is another alias of Darth Tyranus?</t>
+  </si>
+  <si>
+    <t>Count Dooku</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Boba Fett's Mother died at birth.</t>
+  </si>
+  <si>
+    <t>Qui-Gon-Jinn was Count Dooku's padawan at one point.</t>
+  </si>
+  <si>
+    <t>The Death Star was originally an project created by Geonosians.</t>
+  </si>
+  <si>
+    <t>How many times does Obi-Wan shoot General Grievous in Episode III?</t>
+  </si>
+  <si>
+    <t>Trick Question, he used his Lightsaber</t>
+  </si>
+  <si>
+    <t>Luke's first light saber belonged to . . .</t>
+  </si>
+  <si>
+    <t>Anakin Skywalker</t>
+  </si>
+  <si>
+    <t>Qui-Gon-Jinn</t>
+  </si>
+  <si>
+    <t>Owen Lars</t>
+  </si>
+  <si>
+    <t>Luke slices off Dath Vader's left arm.</t>
   </si>
 </sst>
 </file>
@@ -1827,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1900,7 +1990,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>76</v>
@@ -1926,22 +2016,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1952,22 +2042,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -2056,7 +2146,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -2160,7 +2250,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>74</v>
@@ -2264,7 +2354,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>73</v>
@@ -2472,7 +2562,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
@@ -2484,7 +2574,7 @@
         <v>151</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>154</v>
@@ -2524,7 +2614,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>76</v>
@@ -2544,7 +2634,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>76</v>
@@ -2564,7 +2654,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>75</v>
@@ -2584,7 +2674,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>76</v>
@@ -2604,7 +2694,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>76</v>
@@ -2976,7 +3066,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>76</v>
@@ -3248,30 +3338,36 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="2" t="s">
-        <v>126</v>
+      <c r="A60" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="b">
         <v>1</v>
@@ -3287,26 +3383,20 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>286</v>
+      <c r="A61" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>130</v>
+        <v>76</v>
+      </c>
+      <c r="C61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>125</v>
@@ -3314,22 +3404,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G62" s="1">
         <v>2</v>
@@ -3340,22 +3430,22 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G63" s="1">
         <v>2</v>
@@ -3366,22 +3456,22 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G64" s="1">
         <v>2</v>
@@ -3392,22 +3482,22 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G65" s="1">
         <v>2</v>
@@ -3418,19 +3508,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="b">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>125</v>
@@ -3438,25 +3534,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>154</v>
+        <v>76</v>
+      </c>
+      <c r="C67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>125</v>
@@ -3464,22 +3554,22 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G68" s="1">
         <v>2</v>
@@ -3490,22 +3580,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
@@ -3516,19 +3606,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="G70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>125</v>
@@ -3536,25 +3632,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>170</v>
+      <c r="C71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>125</v>
@@ -3562,19 +3652,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="b">
-        <v>0</v>
+      <c r="C72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="G72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>125</v>
@@ -3582,25 +3678,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <v>3</v>
-      </c>
-      <c r="E73" s="1">
-        <v>2</v>
-      </c>
-      <c r="F73" s="1">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>125</v>
@@ -3608,19 +3698,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4</v>
       </c>
       <c r="G74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>125</v>
@@ -3628,10 +3724,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="C75" s="1" t="b">
         <v>1</v>
@@ -3648,25 +3744,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>179</v>
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>125</v>
@@ -3674,19 +3764,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>125</v>
@@ -3694,25 +3790,19 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>125</v>
@@ -3720,25 +3810,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>188</v>
+        <v>76</v>
+      </c>
+      <c r="C79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>125</v>
@@ -3746,25 +3830,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>193</v>
+        <v>75</v>
+      </c>
+      <c r="C80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>125</v>
@@ -3772,308 +3850,296 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>209</v>
+        <v>343</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="G81" s="1">
         <v>2</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>217</v>
+        <v>76</v>
+      </c>
+      <c r="C83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="G84" s="1">
         <v>2</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>350</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>222</v>
+        <v>352</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>224</v>
+        <v>351</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>228</v>
+      <c r="C86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="G87" s="1">
         <v>2</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="G88" s="1">
         <v>2</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>234</v>
+        <v>73</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>5</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="G89" s="1">
         <v>2</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="G90" s="1">
         <v>2</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="G91" s="1">
         <v>2</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="1">
-        <v>7</v>
-      </c>
-      <c r="D92" s="1">
-        <v>3</v>
-      </c>
-      <c r="E92" s="1">
-        <v>10</v>
-      </c>
-      <c r="F92" s="1">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="G92" s="1">
         <v>2</v>
@@ -4084,22 +4150,22 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="G93" s="1">
         <v>2</v>
@@ -4110,22 +4176,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>323</v>
+        <v>143</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="G94" s="1">
         <v>2</v>
@@ -4136,22 +4202,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1">
         <v>2</v>
@@ -4162,22 +4228,22 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="G96" s="1">
         <v>2</v>
@@ -4188,27 +4254,313 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="1">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1">
+        <v>10</v>
+      </c>
+      <c r="F103" s="1">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G105" s="1">
+        <v>2</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C108" s="1">
         <v>1933</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D108" s="1">
         <v>1944</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E108" s="1">
         <v>1928</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F108" s="1">
         <v>1951</v>
       </c>
-      <c r="G97" s="1">
-        <v>2</v>
-      </c>
-      <c r="H97" s="1" t="s">
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>207</v>
       </c>
     </row>

--- a/TriviaQuestions/AllTrivia.xlsx
+++ b/TriviaQuestions/AllTrivia.xlsx
@@ -1027,15 +1027,6 @@
     <t>Darth Maul and Darth Sidious</t>
   </si>
   <si>
-    <t>Darth Vader, Emperor Palpatine</t>
-  </si>
-  <si>
-    <t>Darth Spock, Darth Dooku</t>
-  </si>
-  <si>
-    <t>Count Dooku, Darth Sidious</t>
-  </si>
-  <si>
     <t>What is another alias of Darth Tyranus?</t>
   </si>
   <si>
@@ -1063,9 +1054,6 @@
     <t>How many times does Obi-Wan shoot General Grievous in Episode III?</t>
   </si>
   <si>
-    <t>Trick Question, he used his Lightsaber</t>
-  </si>
-  <si>
     <t>Luke's first light saber belonged to . . .</t>
   </si>
   <si>
@@ -1079,6 +1067,18 @@
   </si>
   <si>
     <t>Luke slices off Dath Vader's left arm.</t>
+  </si>
+  <si>
+    <t>Trick Question: he used his Lightsaber</t>
+  </si>
+  <si>
+    <t>Darth Vader and Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Darth Spock and Darth Dooku</t>
+  </si>
+  <si>
+    <t>Count Dooku and Darth Sidious</t>
   </si>
 </sst>
 </file>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>76</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>76</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>75</v>
@@ -3850,22 +3850,22 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G81" s="1">
         <v>2</v>
@@ -3885,13 +3885,13 @@
         <v>336</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G82" s="1">
         <v>2</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>73</v>
@@ -3957,13 +3957,13 @@
         <v>148</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G85" s="1">
         <v>2</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>75</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>73</v>
@@ -4061,7 +4061,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G89" s="1">
         <v>2</v>

--- a/TriviaQuestions/AllTrivia.xlsx
+++ b/TriviaQuestions/AllTrivia.xlsx
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
